--- a/biology/Botanique/Conservatoire_botanique_national_alpin/Conservatoire_botanique_national_alpin.xlsx
+++ b/biology/Botanique/Conservatoire_botanique_national_alpin/Conservatoire_botanique_national_alpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conservatoire Botanique National Alpin (CBNA) est un établissement public, créé en 1988, voué à la connaissance et la préservation de la flore et des végétations des Alpes françaises et de leurs piémonts. Il fait partie des onze conservatoires botaniques nationaux (CBN) agréés par le Ministère chargé de l’environnement. Son territoire d’agrément recouvre une large part de la flore des Alpes françaises en se situant sur les départements de l’Ain, la Drôme, l’Isère, la Savoie, la Haute-Savoie, les Alpes-de-Haute-Provence et les Hautes-Alpes.
 L’agrément donne 4 missions aux Conservatoires botaniques nationaux :
@@ -489,7 +501,7 @@
 expertise pour le compte de l’État et des collectivités territoriales
 information et éducation du public
 Depuis le 1er janvier 2017, la coordination technique des CBN est assurée par la nouvelle Agence française pour la biodiversité.
-Le siège du CBNA est situé au Domaine de Charance à Gap (Hautes-Alpes). Il est présidé par Claude Boutron, conseiller municipal de Gap. Il est dirigé par Bertrand Lienard[1]. Son équipe est constituée d’une trentaine de personnes réparties entre le siège à Gap et l’antenne à Chambéry. Les salariés sont répartis en quatre services : connaissance, conservation, saisie internet-géomatique et administration générale.
+Le siège du CBNA est situé au Domaine de Charance à Gap (Hautes-Alpes). Il est présidé par Claude Boutron, conseiller municipal de Gap. Il est dirigé par Bertrand Lienard. Son équipe est constituée d’une trentaine de personnes réparties entre le siège à Gap et l’antenne à Chambéry. Les salariés sont répartis en quatre services : connaissance, conservation, saisie internet-géomatique et administration générale.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1988, sous l’impulsion de la ville de Gap, du conseil général des Hautes-Alpes et des parcs nationaux de Port-Cros et des Écrins est créée l’association de préfiguration du CBNA.
 En 1991, l’association devient un syndicat mixte.
@@ -553,7 +567,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Conservatoire Botanique National Alpin a le statut de syndicat mixte et s’appuie sur un comité syndical et un comité scientifique :
 le comité syndical est composé de la ville de Gap, du Conseil départemental des Hautes Alpes et des Régions Auvergne-Rhône-Alpes et Provence-Alpes-Côte d’Azur. Il est l’organe décisionnel de l'établissement. La Direction régionale de l'environnement, de l'aménagement et du logement (DREAL) de Provence-Alpes-Côte d'Azur a une place consultative au comité syndical.
@@ -585,7 +601,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Connaissance : Le CBNA rassemble la connaissance sur la répartition et les caractéristiques biologiques de la flore et du territoire alpin.
 Il mène des inventaires de terrain
@@ -626,7 +644,9 @@
           <t>Ressources documentaires et naturelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Portail iconographique : plus de 30 000 références. Se destine à être ouvert en partie au public.
 Portail documentaire : bases de données flore, habitats, conservation, bibliographique, publication scientifique.
